--- a/example/report_2022_monthly_rates.xlsx
+++ b/example/report_2022_monthly_rates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="66">
   <si>
     <t>Symbol</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Sell Price [EUR]</t>
   </si>
   <si>
-    <t>Total Gain [EUR]</t>
+    <t>Gain [EUR]</t>
   </si>
   <si>
     <t>NVDA</t>
@@ -57,9 +57,6 @@
     <t>GOOG</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>2019-02-28</t>
   </si>
   <si>
@@ -210,7 +207,7 @@
     <t>Zeile 20: In den Zeilen 18 und 19 enthaltene Gewinne aus Aktienveräußerungen i. S. d. § 20 Abs. 2 Satz 1 Nr 1 EStG</t>
   </si>
   <si>
-    <t>Zeile 23: In den Zeilen 18 und 19 enthaltene Verluste aus der Veräußerung aus der Veräuerung von Aktien i. S. d. § 20 Abs. 2 Satz 1 Nr. 1 EStG</t>
+    <t>Zeile 23: In den Zeilen 18 und 19 enthaltene Verluste aus der Veräuerung von Aktien i. S. d. § 20 Abs. 2 Satz 1 Nr. 1 EStG</t>
   </si>
   <si>
     <t>Zeile 41: Anrechenbare noch nicht angerechnete ausländische Steuern</t>
@@ -577,7 +574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,16 +617,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>100.43</v>
@@ -649,16 +646,16 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>163.23</v>
@@ -678,16 +675,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4">
         <v>112.15</v>
@@ -707,16 +704,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5">
         <v>161.55</v>
@@ -736,16 +733,16 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>161.55</v>
@@ -765,16 +762,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7">
         <v>125.76</v>
@@ -794,16 +791,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8">
         <v>125.76</v>
@@ -823,16 +820,16 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9">
         <v>90.58</v>
@@ -852,16 +849,16 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>90.58</v>
@@ -871,14 +868,6 @@
       </c>
       <c r="I10">
         <v>37.24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11">
-        <v>638.65</v>
       </c>
     </row>
   </sheetData>
@@ -888,7 +877,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -919,16 +908,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>0.92</v>
@@ -942,16 +931,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>85</v>
       </c>
       <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
         <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
       </c>
       <c r="E3">
         <v>0.98</v>
@@ -965,16 +954,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>3431.97</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>1.01</v>
@@ -988,16 +977,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>1825.99</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>1.01</v>
@@ -1011,16 +1000,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>3088.48</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>1.01</v>
@@ -1034,16 +1023,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>1.01</v>
@@ -1057,16 +1046,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>329.99</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>0.98</v>
@@ -1080,16 +1069,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>349.99</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>0.98</v>
@@ -1103,16 +1092,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>239.99</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>0.98</v>
@@ -1126,16 +1115,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>499.99</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>0.98</v>
@@ -1145,14 +1134,6 @@
       </c>
       <c r="G11">
         <v>-17.94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>15.89</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1173,16 +1154,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1190,13 +1171,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>92.43000000000001</v>
@@ -1207,24 +1188,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>98.23999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>190.67</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +1207,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1245,30 +1218,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>0.03</v>
@@ -1276,16 +1249,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>0.01</v>
@@ -1293,16 +1266,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>0.02</v>
@@ -1310,16 +1283,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>15.27</v>
@@ -1327,16 +1300,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>0.01</v>
@@ -1344,16 +1317,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0.01</v>
@@ -1361,16 +1334,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>0.01</v>
@@ -1378,16 +1351,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>0.01</v>
@@ -1395,27 +1368,19 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10">
         <v>14.17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>29.54</v>
       </c>
     </row>
   </sheetData>
@@ -1425,7 +1390,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1436,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1453,13 +1418,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <v>13.86</v>
@@ -1470,24 +1435,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>14.74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>28.6</v>
       </c>
     </row>
   </sheetData>
@@ -1505,21 +1462,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <v>829.3200000000001</v>
@@ -1527,32 +1484,32 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3">
-        <v>638.65</v>
+        <v>932.75</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>294.1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>28.6</v>
@@ -1560,10 +1517,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>29.54</v>
@@ -1571,10 +1528,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>15.89</v>

--- a/example/report_2022_monthly_rates.xlsx
+++ b/example/report_2022_monthly_rates.xlsx
@@ -168,7 +168,7 @@
     <t>Buying GOOG</t>
   </si>
   <si>
-    <t>Wire transfer</t>
+    <t>Currency conversion or wire transfer</t>
   </si>
   <si>
     <t>Selling APPL</t>
@@ -1058,7 +1058,7 @@
         <v>37</v>
       </c>
       <c r="B7">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -1073,7 +1073,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="G7">
-        <v>-11.1</v>
+        <v>-10.13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1263,7 +1263,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -1629,7 +1629,7 @@
         <v>69</v>
       </c>
       <c r="C7">
-        <v>15.89</v>
+        <v>16.86</v>
       </c>
     </row>
   </sheetData>

--- a/example/report_2022_monthly_rates.xlsx
+++ b/example/report_2022_monthly_rates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="131">
   <si>
     <t>Symbol</t>
   </si>
@@ -57,18 +57,33 @@
     <t>GOOG</t>
   </si>
   <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
     <t>2019-02-28</t>
   </si>
   <si>
     <t>2020-02-28</t>
   </si>
   <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>2022-09-21</t>
-  </si>
-  <si>
     <t>2019-10-11</t>
   </si>
   <si>
@@ -93,16 +108,10 @@
     <t>2022-11-14</t>
   </si>
   <si>
-    <t>114.00 USD</t>
-  </si>
-  <si>
-    <t>178.00 USD</t>
-  </si>
-  <si>
-    <t>132.00 USD</t>
-  </si>
-  <si>
-    <t>160.00 USD</t>
+    <t>28.50 USD</t>
+  </si>
+  <si>
+    <t>44.50 USD</t>
   </si>
   <si>
     <t>139.00 USD</t>
@@ -132,9 +141,93 @@
     <t>100.00 USD</t>
   </si>
   <si>
+    <t>25.11</t>
+  </si>
+  <si>
+    <t>40.81</t>
+  </si>
+  <si>
+    <t>125.76</t>
+  </si>
+  <si>
+    <t>90.58</t>
+  </si>
+  <si>
+    <t>157.52</t>
+  </si>
+  <si>
+    <t>167.61</t>
+  </si>
+  <si>
+    <t>173.17</t>
+  </si>
+  <si>
+    <t>107.83</t>
+  </si>
+  <si>
+    <t>117.63</t>
+  </si>
+  <si>
+    <t>68.62</t>
+  </si>
+  <si>
+    <t>98.03</t>
+  </si>
+  <si>
+    <t>1059.27</t>
+  </si>
+  <si>
+    <t>1633.92</t>
+  </si>
+  <si>
+    <t>1394.87</t>
+  </si>
+  <si>
+    <t>2514.83</t>
+  </si>
+  <si>
+    <t>-53.80</t>
+  </si>
+  <si>
+    <t>-16.26</t>
+  </si>
+  <si>
+    <t>-109.80</t>
+  </si>
+  <si>
+    <t>37.24</t>
+  </si>
+  <si>
     <t>USD</t>
   </si>
   <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>3431.97</t>
+  </si>
+  <si>
+    <t>1825.99</t>
+  </si>
+  <si>
+    <t>3088.48</t>
+  </si>
+  <si>
+    <t>155.00</t>
+  </si>
+  <si>
+    <t>329.99</t>
+  </si>
+  <si>
+    <t>349.99</t>
+  </si>
+  <si>
+    <t>239.99</t>
+  </si>
+  <si>
+    <t>499.99</t>
+  </si>
+  <si>
     <t>2022-04-01</t>
   </si>
   <si>
@@ -147,6 +240,48 @@
     <t>2022-12-01</t>
   </si>
   <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>7.94</t>
+  </si>
+  <si>
+    <t>27.55</t>
+  </si>
+  <si>
+    <t>14.66</t>
+  </si>
+  <si>
+    <t>24.79</t>
+  </si>
+  <si>
+    <t>-10.13</t>
+  </si>
+  <si>
+    <t>-11.84</t>
+  </si>
+  <si>
+    <t>-12.56</t>
+  </si>
+  <si>
+    <t>-8.61</t>
+  </si>
+  <si>
+    <t>-17.94</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -162,6 +297,12 @@
     <t>Dividend Payment</t>
   </si>
   <si>
+    <t>92.43</t>
+  </si>
+  <si>
+    <t>98.24</t>
+  </si>
+  <si>
     <t>Selling NVDA</t>
   </si>
   <si>
@@ -192,9 +333,33 @@
     <t>15.00 USD</t>
   </si>
   <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>5.09</t>
+  </si>
+  <si>
+    <t>15.27</t>
+  </si>
+  <si>
+    <t>14.17</t>
+  </si>
+  <si>
     <t>Withheld Tax on Dividends</t>
   </si>
   <si>
+    <t>13.86</t>
+  </si>
+  <si>
+    <t>14.74</t>
+  </si>
+  <si>
     <t>ELSTER - Anlage</t>
   </si>
   <si>
@@ -229,6 +394,24 @@
   </si>
   <si>
     <t>Zeilen 42 - 48: Gewinn / Verlust aus Verkauf von Fremdwährungen</t>
+  </si>
+  <si>
+    <t>6650.94</t>
+  </si>
+  <si>
+    <t>6640.13</t>
+  </si>
+  <si>
+    <t>179.86</t>
+  </si>
+  <si>
+    <t>28.60</t>
+  </si>
+  <si>
+    <t>34.63</t>
+  </si>
+  <si>
+    <t>16.86</t>
   </si>
 </sst>
 </file>
@@ -586,7 +769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,261 +816,232 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <v>100.43</v>
-      </c>
-      <c r="H2">
-        <v>157.52</v>
-      </c>
-      <c r="I2">
-        <v>114.17</v>
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3">
-        <v>163.23</v>
-      </c>
-      <c r="H3">
-        <v>157.52</v>
-      </c>
-      <c r="I3">
-        <v>-114.24</v>
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>10</v>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4">
-        <v>112.15</v>
-      </c>
-      <c r="H4">
-        <v>167.61</v>
-      </c>
-      <c r="I4">
-        <v>554.66</v>
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5">
-        <v>161.55</v>
-      </c>
-      <c r="H5">
-        <v>167.61</v>
-      </c>
-      <c r="I5">
-        <v>6.06</v>
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6">
-        <v>161.55</v>
-      </c>
-      <c r="H6">
-        <v>173.17</v>
-      </c>
-      <c r="I6">
-        <v>220.62</v>
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>3</v>
+      <c r="B7" t="s">
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7">
-        <v>125.76</v>
-      </c>
-      <c r="H7">
-        <v>107.83</v>
-      </c>
-      <c r="I7">
-        <v>-53.8</v>
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8">
-        <v>125.76</v>
-      </c>
-      <c r="H8">
-        <v>117.63</v>
-      </c>
-      <c r="I8">
-        <v>-16.26</v>
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>5</v>
+      <c r="B9" t="s">
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9">
-        <v>90.58</v>
-      </c>
-      <c r="H9">
-        <v>68.62</v>
-      </c>
-      <c r="I9">
-        <v>-109.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10">
-        <v>90.58</v>
-      </c>
-      <c r="H10">
-        <v>98.03</v>
-      </c>
-      <c r="I10">
-        <v>37.24</v>
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -940,232 +1094,232 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2">
-        <v>85</v>
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2">
-        <v>0.92</v>
-      </c>
-      <c r="F2">
-        <v>1.02</v>
-      </c>
-      <c r="G2">
-        <v>7.94</v>
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>85</v>
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3">
-        <v>0.98</v>
-      </c>
-      <c r="F3">
-        <v>1.02</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>3431.97</v>
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4">
-        <v>1.01</v>
-      </c>
-      <c r="F4">
-        <v>1.02</v>
-      </c>
-      <c r="G4">
-        <v>27.55</v>
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5">
-        <v>1825.99</v>
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5">
-        <v>1.01</v>
-      </c>
-      <c r="F5">
-        <v>1.02</v>
-      </c>
-      <c r="G5">
-        <v>14.66</v>
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6">
-        <v>3088.48</v>
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>1.01</v>
-      </c>
-      <c r="F6">
-        <v>1.02</v>
-      </c>
-      <c r="G6">
-        <v>24.79</v>
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7">
-        <v>155</v>
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7">
-        <v>1.01</v>
-      </c>
-      <c r="F7">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G7">
-        <v>-10.13</v>
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8">
-        <v>329.99</v>
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8">
-        <v>0.98</v>
-      </c>
-      <c r="F8">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G8">
-        <v>-11.84</v>
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9">
-        <v>349.99</v>
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9">
-        <v>0.98</v>
-      </c>
-      <c r="F9">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G9">
-        <v>-12.56</v>
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10">
-        <v>239.99</v>
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10">
-        <v>0.98</v>
-      </c>
-      <c r="F10">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G10">
-        <v>-8.609999999999999</v>
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11">
-        <v>499.99</v>
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11">
-        <v>0.98</v>
-      </c>
-      <c r="F11">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G11">
-        <v>-17.94</v>
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1198,16 +1352,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1215,16 +1369,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2">
-        <v>92.43000000000001</v>
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1232,16 +1386,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3">
-        <v>98.23999999999999</v>
+      <c r="E3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1274,186 +1428,186 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2">
-        <v>0.03</v>
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3">
-        <v>0.01</v>
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4">
-        <v>0.02</v>
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5">
-        <v>5.09</v>
+        <v>102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6">
-        <v>15.27</v>
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7">
-        <v>0.01</v>
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8">
-        <v>0.01</v>
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9">
-        <v>0.01</v>
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10">
-        <v>0.01</v>
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11">
-        <v>14.17</v>
+        <v>103</v>
+      </c>
+      <c r="E11" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1486,16 +1640,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1503,16 +1657,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2">
-        <v>13.86</v>
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1520,16 +1674,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3">
-        <v>14.74</v>
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1552,84 +1706,84 @@
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="105.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2">
-        <v>829.3200000000001</v>
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3">
-        <v>932.75</v>
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4">
-        <v>294.1</v>
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5">
-        <v>28.6</v>
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6">
-        <v>34.63</v>
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7">
-        <v>16.86</v>
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/example/report_2022_monthly_rates.xlsx
+++ b/example/report_2022_monthly_rates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="143">
   <si>
     <t>Symbol</t>
   </si>
@@ -57,13 +57,16 @@
     <t>GOOG</t>
   </si>
   <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>14.00</t>
-  </si>
-  <si>
-    <t>11.00</t>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>1.00</t>
   </si>
   <si>
     <t>19.00</t>
@@ -72,9 +75,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>5.00</t>
   </si>
   <si>
@@ -84,6 +84,12 @@
     <t>2020-02-28</t>
   </si>
   <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>2022-09-21</t>
+  </si>
+  <si>
     <t>2019-10-11</t>
   </si>
   <si>
@@ -108,10 +114,16 @@
     <t>2022-11-14</t>
   </si>
   <si>
-    <t>28.50 USD</t>
-  </si>
-  <si>
-    <t>44.50 USD</t>
+    <t>114.00 USD</t>
+  </si>
+  <si>
+    <t>178.00 USD</t>
+  </si>
+  <si>
+    <t>132.00 USD</t>
+  </si>
+  <si>
+    <t>160.00 USD</t>
   </si>
   <si>
     <t>139.00 USD</t>
@@ -141,10 +153,16 @@
     <t>100.00 USD</t>
   </si>
   <si>
-    <t>25.11</t>
-  </si>
-  <si>
-    <t>40.81</t>
+    <t>100.43</t>
+  </si>
+  <si>
+    <t>163.23</t>
+  </si>
+  <si>
+    <t>112.15</t>
+  </si>
+  <si>
+    <t>161.55</t>
   </si>
   <si>
     <t>125.76</t>
@@ -174,16 +192,19 @@
     <t>98.03</t>
   </si>
   <si>
-    <t>1059.27</t>
-  </si>
-  <si>
-    <t>1633.92</t>
-  </si>
-  <si>
-    <t>1394.87</t>
-  </si>
-  <si>
-    <t>2514.83</t>
+    <t>114.17</t>
+  </si>
+  <si>
+    <t>-114.24</t>
+  </si>
+  <si>
+    <t>554.66</t>
+  </si>
+  <si>
+    <t>6.06</t>
+  </si>
+  <si>
+    <t>220.62</t>
   </si>
   <si>
     <t>-53.80</t>
@@ -213,7 +234,7 @@
     <t>3088.48</t>
   </si>
   <si>
-    <t>155.00</t>
+    <t>170.00</t>
   </si>
   <si>
     <t>329.99</t>
@@ -267,7 +288,7 @@
     <t>24.79</t>
   </si>
   <si>
-    <t>-10.13</t>
+    <t>-11.10</t>
   </si>
   <si>
     <t>-11.84</t>
@@ -294,7 +315,13 @@
     <t>Amount [EUR]</t>
   </si>
   <si>
-    <t>Dividend Payment</t>
+    <t>Dividend Payments</t>
+  </si>
+  <si>
+    <t>Dividend Payment (NVDA)</t>
+  </si>
+  <si>
+    <t>Dividend Payment (APPL)</t>
   </si>
   <si>
     <t>92.43</t>
@@ -303,19 +330,28 @@
     <t>98.24</t>
   </si>
   <si>
-    <t>Selling NVDA</t>
-  </si>
-  <si>
-    <t>Buying GOOG</t>
-  </si>
-  <si>
-    <t>Currency conversion or wire transfer</t>
-  </si>
-  <si>
-    <t>Selling APPL</t>
-  </si>
-  <si>
-    <t>Selling GOOG</t>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>Fees for Sell Order (22.00 x NVDA)</t>
+  </si>
+  <si>
+    <t>Fees for Sell Order (11.00 x NVDA)</t>
+  </si>
+  <si>
+    <t>Fees for Sell Order (19.00 x NVDA)</t>
+  </si>
+  <si>
+    <t>Fees for converting USD to EUR</t>
+  </si>
+  <si>
+    <t>Fees for Sell Order (3.00 x APPL)</t>
+  </si>
+  <si>
+    <t>Fees for Sell Order (2.00 x APPL)</t>
+  </si>
+  <si>
+    <t>Fees for Sell Order (5.00 x GOOG)</t>
   </si>
   <si>
     <t>0.03 USD</t>
@@ -327,9 +363,6 @@
     <t>0.02 USD</t>
   </si>
   <si>
-    <t>5.00 USD</t>
-  </si>
-  <si>
     <t>15.00 USD</t>
   </si>
   <si>
@@ -342,16 +375,19 @@
     <t>0.02</t>
   </si>
   <si>
-    <t>5.09</t>
-  </si>
-  <si>
     <t>15.27</t>
   </si>
   <si>
     <t>14.17</t>
   </si>
   <si>
-    <t>Withheld Tax on Dividends</t>
+    <t>Tax Withholding</t>
+  </si>
+  <si>
+    <t>Withheld Tax on Dividends (NVDA)</t>
+  </si>
+  <si>
+    <t>Withheld Tax on Dividends (APPL)</t>
   </si>
   <si>
     <t>13.86</t>
@@ -396,22 +432,22 @@
     <t>Zeilen 42 - 48: Gewinn / Verlust aus Verkauf von Fremdwährungen</t>
   </si>
   <si>
-    <t>6650.94</t>
-  </si>
-  <si>
-    <t>6640.13</t>
-  </si>
-  <si>
-    <t>179.86</t>
+    <t>829.32</t>
+  </si>
+  <si>
+    <t>932.75</t>
+  </si>
+  <si>
+    <t>294.10</t>
   </si>
   <si>
     <t>28.60</t>
   </si>
   <si>
-    <t>34.63</t>
-  </si>
-  <si>
-    <t>16.86</t>
+    <t>29.54</t>
+  </si>
+  <si>
+    <t>15.89</t>
   </si>
 </sst>
 </file>
@@ -769,7 +805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -823,22 +859,22 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -852,22 +888,22 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -878,25 +914,25 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -907,54 +943,54 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -965,54 +1001,54 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1023,25 +1059,54 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
         <v>43</v>
       </c>
-      <c r="H9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" t="s">
-        <v>58</v>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1094,232 +1159,232 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1340,8 +1405,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -1352,50 +1417,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1410,14 +1475,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -1428,186 +1493,169 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1628,8 +1676,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -1640,50 +1688,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1706,84 +1754,84 @@
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="105.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/example/report_2022_monthly_rates.xlsx
+++ b/example/report_2022_monthly_rates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="152">
   <si>
     <t>Symbol</t>
   </si>
@@ -57,6 +57,15 @@
     <t>GOOG</t>
   </si>
   <si>
+    <t>Gains (incl. losses)</t>
+  </si>
+  <si>
+    <t>Gains (excl. losses)</t>
+  </si>
+  <si>
+    <t>Losses</t>
+  </si>
+  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -219,6 +228,15 @@
     <t>37.24</t>
   </si>
   <si>
+    <t>638.65</t>
+  </si>
+  <si>
+    <t>932.75</t>
+  </si>
+  <si>
+    <t>-294.10</t>
+  </si>
+  <si>
     <t>USD</t>
   </si>
   <si>
@@ -303,6 +321,15 @@
     <t>-17.94</t>
   </si>
   <si>
+    <t>15.89</t>
+  </si>
+  <si>
+    <t>77.94</t>
+  </si>
+  <si>
+    <t>-62.05</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -318,6 +345,9 @@
     <t>Dividend Payments</t>
   </si>
   <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
     <t>Dividend Payment (NVDA)</t>
   </si>
   <si>
@@ -330,6 +360,9 @@
     <t>98.24</t>
   </si>
   <si>
+    <t>190.67</t>
+  </si>
+  <si>
     <t>Fees</t>
   </si>
   <si>
@@ -381,6 +414,9 @@
     <t>14.17</t>
   </si>
   <si>
+    <t>29.54</t>
+  </si>
+  <si>
     <t>Tax Withholding</t>
   </si>
   <si>
@@ -396,6 +432,9 @@
     <t>14.74</t>
   </si>
   <si>
+    <t>28.60</t>
+  </si>
+  <si>
     <t>ELSTER - Anlage</t>
   </si>
   <si>
@@ -435,19 +474,7 @@
     <t>829.32</t>
   </si>
   <si>
-    <t>932.75</t>
-  </si>
-  <si>
     <t>294.10</t>
-  </si>
-  <si>
-    <t>28.60</t>
-  </si>
-  <si>
-    <t>29.54</t>
-  </si>
-  <si>
-    <t>15.89</t>
   </si>
 </sst>
 </file>
@@ -805,13 +832,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -853,28 +880,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -882,28 +909,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -911,28 +938,28 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -940,28 +967,28 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -969,28 +996,28 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -998,28 +1025,28 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1027,28 +1054,28 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1056,28 +1083,28 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1085,28 +1112,52 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1121,13 +1172,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -1159,232 +1210,256 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1474,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1417,50 +1492,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1475,13 +1558,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -1493,169 +1576,177 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1761,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1688,50 +1779,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1759,79 +1858,79 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/example/report_2022_monthly_rates.xlsx
+++ b/example/report_2022_monthly_rates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="82">
   <si>
     <t>Symbol</t>
   </si>
@@ -57,6 +57,9 @@
     <t>GOOG</t>
   </si>
   <si>
+    <t>---------------------</t>
+  </si>
+  <si>
     <t>Gains (incl. losses)</t>
   </si>
   <si>
@@ -66,27 +69,6 @@
     <t>Losses</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
     <t>2019-02-28</t>
   </si>
   <si>
@@ -162,111 +144,9 @@
     <t>100.00 USD</t>
   </si>
   <si>
-    <t>100.43</t>
-  </si>
-  <si>
-    <t>163.23</t>
-  </si>
-  <si>
-    <t>112.15</t>
-  </si>
-  <si>
-    <t>161.55</t>
-  </si>
-  <si>
-    <t>125.76</t>
-  </si>
-  <si>
-    <t>90.58</t>
-  </si>
-  <si>
-    <t>157.52</t>
-  </si>
-  <si>
-    <t>167.61</t>
-  </si>
-  <si>
-    <t>173.17</t>
-  </si>
-  <si>
-    <t>107.83</t>
-  </si>
-  <si>
-    <t>117.63</t>
-  </si>
-  <si>
-    <t>68.62</t>
-  </si>
-  <si>
-    <t>98.03</t>
-  </si>
-  <si>
-    <t>114.17</t>
-  </si>
-  <si>
-    <t>-114.24</t>
-  </si>
-  <si>
-    <t>554.66</t>
-  </si>
-  <si>
-    <t>6.06</t>
-  </si>
-  <si>
-    <t>220.62</t>
-  </si>
-  <si>
-    <t>-53.80</t>
-  </si>
-  <si>
-    <t>-16.26</t>
-  </si>
-  <si>
-    <t>-109.80</t>
-  </si>
-  <si>
-    <t>37.24</t>
-  </si>
-  <si>
-    <t>638.65</t>
-  </si>
-  <si>
-    <t>932.75</t>
-  </si>
-  <si>
-    <t>-294.10</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>3431.97</t>
-  </si>
-  <si>
-    <t>1825.99</t>
-  </si>
-  <si>
-    <t>3088.48</t>
-  </si>
-  <si>
-    <t>170.00</t>
-  </si>
-  <si>
-    <t>329.99</t>
-  </si>
-  <si>
-    <t>349.99</t>
-  </si>
-  <si>
-    <t>239.99</t>
-  </si>
-  <si>
-    <t>499.99</t>
-  </si>
-  <si>
     <t>2022-04-01</t>
   </si>
   <si>
@@ -279,57 +159,6 @@
     <t>2022-12-01</t>
   </si>
   <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>7.94</t>
-  </si>
-  <si>
-    <t>27.55</t>
-  </si>
-  <si>
-    <t>14.66</t>
-  </si>
-  <si>
-    <t>24.79</t>
-  </si>
-  <si>
-    <t>-11.10</t>
-  </si>
-  <si>
-    <t>-11.84</t>
-  </si>
-  <si>
-    <t>-12.56</t>
-  </si>
-  <si>
-    <t>-8.61</t>
-  </si>
-  <si>
-    <t>-17.94</t>
-  </si>
-  <si>
-    <t>15.89</t>
-  </si>
-  <si>
-    <t>77.94</t>
-  </si>
-  <si>
-    <t>-62.05</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -345,6 +174,9 @@
     <t>Dividend Payments</t>
   </si>
   <si>
+    <t>------------</t>
+  </si>
+  <si>
     <t>Total Amount</t>
   </si>
   <si>
@@ -354,15 +186,6 @@
     <t>Dividend Payment (APPL)</t>
   </si>
   <si>
-    <t>92.43</t>
-  </si>
-  <si>
-    <t>98.24</t>
-  </si>
-  <si>
-    <t>190.67</t>
-  </si>
-  <si>
     <t>Fees</t>
   </si>
   <si>
@@ -399,24 +222,6 @@
     <t>15.00 USD</t>
   </si>
   <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>15.27</t>
-  </si>
-  <si>
-    <t>14.17</t>
-  </si>
-  <si>
-    <t>29.54</t>
-  </si>
-  <si>
     <t>Tax Withholding</t>
   </si>
   <si>
@@ -426,15 +231,6 @@
     <t>Withheld Tax on Dividends (APPL)</t>
   </si>
   <si>
-    <t>13.86</t>
-  </si>
-  <si>
-    <t>14.74</t>
-  </si>
-  <si>
-    <t>28.60</t>
-  </si>
-  <si>
     <t>ELSTER - Anlage</t>
   </si>
   <si>
@@ -469,12 +265,6 @@
   </si>
   <si>
     <t>Zeilen 42 - 48: Gewinn / Verlust aus Verkauf von Fremdwährungen</t>
-  </si>
-  <si>
-    <t>829.32</t>
-  </si>
-  <si>
-    <t>294.10</t>
   </si>
 </sst>
 </file>
@@ -879,285 +669,290 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
+      <c r="B2">
+        <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" t="s">
-        <v>60</v>
+      <c r="G2">
+        <v>100.43</v>
+      </c>
+      <c r="H2">
+        <v>157.52</v>
+      </c>
+      <c r="I2">
+        <v>114.17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
+      <c r="B3">
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="G3">
+        <v>163.23</v>
+      </c>
+      <c r="H3">
+        <v>157.52</v>
+      </c>
+      <c r="I3">
+        <v>-114.24</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
+      <c r="B4">
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
+        <v>35</v>
+      </c>
+      <c r="G4">
+        <v>112.15</v>
+      </c>
+      <c r="H4">
+        <v>167.61</v>
+      </c>
+      <c r="I4">
+        <v>554.66</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" t="s">
-        <v>63</v>
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>161.55</v>
+      </c>
+      <c r="H5">
+        <v>167.61</v>
+      </c>
+      <c r="I5">
+        <v>6.06</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" t="s">
-        <v>64</v>
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>161.55</v>
+      </c>
+      <c r="H6">
+        <v>173.17</v>
+      </c>
+      <c r="I6">
+        <v>220.62</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" t="s">
-        <v>65</v>
+        <v>37</v>
+      </c>
+      <c r="G7">
+        <v>125.76</v>
+      </c>
+      <c r="H7">
+        <v>107.83</v>
+      </c>
+      <c r="I7">
+        <v>-53.8</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
+      <c r="B8">
+        <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" t="s">
-        <v>66</v>
+      <c r="G8">
+        <v>125.76</v>
+      </c>
+      <c r="H8">
+        <v>117.63</v>
+      </c>
+      <c r="I8">
+        <v>-16.26</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" t="s">
-        <v>67</v>
+      <c r="G9">
+        <v>90.58</v>
+      </c>
+      <c r="H9">
+        <v>68.62</v>
+      </c>
+      <c r="I9">
+        <v>-109.8</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
       <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" t="s">
-        <v>68</v>
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>90.58</v>
+      </c>
+      <c r="H10">
+        <v>98.03</v>
+      </c>
+      <c r="I10">
+        <v>37.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>69</v>
+        <v>13</v>
+      </c>
+      <c r="I12">
+        <v>638.65</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <v>932.75</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>71</v>
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>-294.1</v>
       </c>
     </row>
   </sheetData>
@@ -1210,256 +1005,261 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" t="s">
-        <v>91</v>
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>0.92</v>
+      </c>
+      <c r="F2">
+        <v>1.02</v>
+      </c>
+      <c r="G2">
+        <v>7.94</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>0.98</v>
+      </c>
+      <c r="F3">
+        <v>1.02</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>3431.97</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" t="s">
-        <v>92</v>
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>1.01</v>
+      </c>
+      <c r="F4">
+        <v>1.02</v>
+      </c>
+      <c r="G4">
+        <v>27.55</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>1825.99</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" t="s">
-        <v>93</v>
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>1.01</v>
+      </c>
+      <c r="F5">
+        <v>1.02</v>
+      </c>
+      <c r="G5">
+        <v>14.66</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>3088.48</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" t="s">
-        <v>94</v>
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <v>1.01</v>
+      </c>
+      <c r="F6">
+        <v>1.02</v>
+      </c>
+      <c r="G6">
+        <v>24.79</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" t="s">
-        <v>77</v>
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" t="s">
-        <v>95</v>
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>1.01</v>
+      </c>
+      <c r="F7">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G7">
+        <v>-11.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>329.99</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" t="s">
-        <v>96</v>
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>0.98</v>
+      </c>
+      <c r="F8">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G8">
+        <v>-11.84</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" t="s">
-        <v>79</v>
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>349.99</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" t="s">
-        <v>97</v>
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>0.98</v>
+      </c>
+      <c r="F9">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G9">
+        <v>-12.56</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>239.99</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" t="s">
-        <v>98</v>
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>0.98</v>
+      </c>
+      <c r="F10">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G10">
+        <v>-8.609999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>499.99</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" t="s">
-        <v>99</v>
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>0.98</v>
+      </c>
+      <c r="F11">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G11">
+        <v>-17.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>100</v>
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>15.89</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>101</v>
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>77.94</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>102</v>
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>-62.05</v>
       </c>
     </row>
   </sheetData>
@@ -1492,58 +1292,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>92.43000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>112</v>
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>98.23999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" t="s">
-        <v>113</v>
+        <v>52</v>
+      </c>
+      <c r="E5">
+        <v>190.67</v>
       </c>
     </row>
   </sheetData>
@@ -1576,177 +1381,182 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" t="s">
-        <v>126</v>
+        <v>63</v>
+      </c>
+      <c r="E2">
+        <v>0.03</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
+        <v>64</v>
+      </c>
+      <c r="E3">
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" t="s">
-        <v>128</v>
+        <v>65</v>
+      </c>
+      <c r="E4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" t="s">
-        <v>129</v>
+        <v>66</v>
+      </c>
+      <c r="E5">
+        <v>15.27</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
+        <v>64</v>
+      </c>
+      <c r="E6">
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
+        <v>64</v>
+      </c>
+      <c r="E7">
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" t="s">
-        <v>130</v>
+        <v>66</v>
+      </c>
+      <c r="E10">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" t="s">
-        <v>131</v>
+        <v>52</v>
+      </c>
+      <c r="E12">
+        <v>29.54</v>
       </c>
     </row>
   </sheetData>
@@ -1779,58 +1589,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" t="s">
-        <v>135</v>
+        <v>66</v>
+      </c>
+      <c r="E2">
+        <v>13.86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" t="s">
-        <v>136</v>
+        <v>66</v>
+      </c>
+      <c r="E3">
+        <v>14.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" t="s">
-        <v>137</v>
+        <v>52</v>
+      </c>
+      <c r="E5">
+        <v>28.6</v>
       </c>
     </row>
   </sheetData>
@@ -1853,84 +1668,84 @@
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="105.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" t="s">
-        <v>150</v>
+        <v>76</v>
+      </c>
+      <c r="C2">
+        <v>829.3200000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="C3">
+        <v>932.75</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" t="s">
-        <v>151</v>
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>294.1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" t="s">
-        <v>137</v>
+        <v>79</v>
+      </c>
+      <c r="C5">
+        <v>28.6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" t="s">
-        <v>131</v>
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>29.54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
+        <v>81</v>
+      </c>
+      <c r="C7">
+        <v>15.89</v>
       </c>
     </row>
   </sheetData>

--- a/example/report_2022_monthly_rates.xlsx
+++ b/example/report_2022_monthly_rates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="140">
   <si>
     <t>Symbol</t>
   </si>
@@ -48,6 +48,18 @@
     <t>Gain [EUR]</t>
   </si>
   <si>
+    <t>---------------------</t>
+  </si>
+  <si>
+    <t>Gains (incl. losses)</t>
+  </si>
+  <si>
+    <t>Gains (excl. losses)</t>
+  </si>
+  <si>
+    <t>Losses</t>
+  </si>
+  <si>
     <t>NVDA</t>
   </si>
   <si>
@@ -57,16 +69,25 @@
     <t>GOOG</t>
   </si>
   <si>
-    <t>---------------------</t>
-  </si>
-  <si>
-    <t>Gains (incl. losses)</t>
-  </si>
-  <si>
-    <t>Gains (excl. losses)</t>
-  </si>
-  <si>
-    <t>Losses</t>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>5.00</t>
   </si>
   <si>
     <t>2019-02-28</t>
@@ -144,9 +165,111 @@
     <t>100.00 USD</t>
   </si>
   <si>
+    <t>100.43</t>
+  </si>
+  <si>
+    <t>163.23</t>
+  </si>
+  <si>
+    <t>112.15</t>
+  </si>
+  <si>
+    <t>161.55</t>
+  </si>
+  <si>
+    <t>125.76</t>
+  </si>
+  <si>
+    <t>90.58</t>
+  </si>
+  <si>
+    <t>157.52</t>
+  </si>
+  <si>
+    <t>167.61</t>
+  </si>
+  <si>
+    <t>173.17</t>
+  </si>
+  <si>
+    <t>107.83</t>
+  </si>
+  <si>
+    <t>117.63</t>
+  </si>
+  <si>
+    <t>68.62</t>
+  </si>
+  <si>
+    <t>98.03</t>
+  </si>
+  <si>
+    <t>638.65</t>
+  </si>
+  <si>
+    <t>932.75</t>
+  </si>
+  <si>
+    <t>-294.10</t>
+  </si>
+  <si>
+    <t>114.17</t>
+  </si>
+  <si>
+    <t>-114.24</t>
+  </si>
+  <si>
+    <t>554.66</t>
+  </si>
+  <si>
+    <t>6.06</t>
+  </si>
+  <si>
+    <t>220.62</t>
+  </si>
+  <si>
+    <t>-53.80</t>
+  </si>
+  <si>
+    <t>-16.26</t>
+  </si>
+  <si>
+    <t>-109.80</t>
+  </si>
+  <si>
+    <t>37.24</t>
+  </si>
+  <si>
     <t>USD</t>
   </si>
   <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>3431.97</t>
+  </si>
+  <si>
+    <t>1825.99</t>
+  </si>
+  <si>
+    <t>3088.48</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>329.99</t>
+  </si>
+  <si>
+    <t>349.99</t>
+  </si>
+  <si>
+    <t>239.99</t>
+  </si>
+  <si>
+    <t>499.99</t>
+  </si>
+  <si>
     <t>2022-04-01</t>
   </si>
   <si>
@@ -157,6 +280,57 @@
   </si>
   <si>
     <t>2022-12-01</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>15.89</t>
+  </si>
+  <si>
+    <t>77.94</t>
+  </si>
+  <si>
+    <t>-62.05</t>
+  </si>
+  <si>
+    <t>7.94</t>
+  </si>
+  <si>
+    <t>27.55</t>
+  </si>
+  <si>
+    <t>14.66</t>
+  </si>
+  <si>
+    <t>24.79</t>
+  </si>
+  <si>
+    <t>-11.10</t>
+  </si>
+  <si>
+    <t>-11.84</t>
+  </si>
+  <si>
+    <t>-12.56</t>
+  </si>
+  <si>
+    <t>-8.61</t>
+  </si>
+  <si>
+    <t>-17.94</t>
   </si>
   <si>
     <t>Comment</t>
@@ -669,290 +843,290 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2">
-        <v>100.43</v>
-      </c>
-      <c r="H2">
-        <v>157.52</v>
-      </c>
-      <c r="I2">
-        <v>114.17</v>
-      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3">
-        <v>163.23</v>
-      </c>
-      <c r="H3">
-        <v>157.52</v>
-      </c>
-      <c r="I3">
-        <v>-114.24</v>
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4">
-        <v>112.15</v>
-      </c>
-      <c r="H4">
-        <v>167.61</v>
-      </c>
-      <c r="I4">
-        <v>554.66</v>
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5">
-        <v>161.55</v>
-      </c>
-      <c r="H5">
-        <v>167.61</v>
-      </c>
-      <c r="I5">
-        <v>6.06</v>
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6">
-        <v>161.55</v>
-      </c>
-      <c r="H6">
-        <v>173.17</v>
-      </c>
-      <c r="I6">
-        <v>220.62</v>
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7">
-        <v>125.76</v>
-      </c>
-      <c r="H7">
-        <v>107.83</v>
-      </c>
-      <c r="I7">
-        <v>-53.8</v>
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8">
-        <v>125.76</v>
-      </c>
-      <c r="H8">
-        <v>117.63</v>
-      </c>
-      <c r="I8">
-        <v>-16.26</v>
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9">
-        <v>90.58</v>
-      </c>
-      <c r="H9">
-        <v>68.62</v>
-      </c>
-      <c r="I9">
-        <v>-109.8</v>
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10">
-        <v>90.58</v>
-      </c>
-      <c r="H10">
-        <v>98.03</v>
-      </c>
-      <c r="I10">
-        <v>37.24</v>
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12">
-        <v>638.65</v>
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13">
-        <v>932.75</v>
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="I14">
-        <v>-294.1</v>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1005,261 +1179,261 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2">
-        <v>0.92</v>
-      </c>
-      <c r="F2">
-        <v>1.02</v>
-      </c>
-      <c r="G2">
-        <v>7.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3">
-        <v>0.98</v>
-      </c>
-      <c r="F3">
-        <v>1.02</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4">
-        <v>3431.97</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4">
-        <v>1.01</v>
-      </c>
-      <c r="F4">
-        <v>1.02</v>
-      </c>
-      <c r="G4">
-        <v>27.55</v>
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5">
-        <v>1825.99</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5">
-        <v>1.01</v>
-      </c>
-      <c r="F5">
-        <v>1.02</v>
-      </c>
-      <c r="G5">
-        <v>14.66</v>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6">
-        <v>3088.48</v>
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6">
-        <v>1.01</v>
-      </c>
-      <c r="F6">
-        <v>1.02</v>
-      </c>
-      <c r="G6">
-        <v>24.79</v>
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7">
-        <v>170</v>
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7">
-        <v>1.01</v>
-      </c>
-      <c r="F7">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G7">
-        <v>-11.1</v>
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8">
-        <v>329.99</v>
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8">
-        <v>0.98</v>
-      </c>
-      <c r="F8">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G8">
-        <v>-11.84</v>
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9">
-        <v>349.99</v>
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9">
-        <v>0.98</v>
-      </c>
-      <c r="F9">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G9">
-        <v>-12.56</v>
+        <v>85</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10">
-        <v>239.99</v>
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10">
-        <v>0.98</v>
-      </c>
-      <c r="F10">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G10">
-        <v>-8.609999999999999</v>
+        <v>85</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11">
-        <v>499.99</v>
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11">
-        <v>0.98</v>
-      </c>
-      <c r="F11">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G11">
-        <v>-17.94</v>
+        <v>86</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13">
-        <v>15.89</v>
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14">
-        <v>77.94</v>
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>-62.05</v>
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1292,30 +1466,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <v>92.43000000000001</v>
@@ -1323,16 +1497,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>98.23999999999999</v>
@@ -1340,12 +1514,12 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="E5">
         <v>190.67</v>
@@ -1381,30 +1555,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="E2">
         <v>0.03</v>
@@ -1412,16 +1586,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="E3">
         <v>0.01</v>
@@ -1429,16 +1603,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="E4">
         <v>0.02</v>
@@ -1446,16 +1620,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="E5">
         <v>15.27</v>
@@ -1463,16 +1637,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="E6">
         <v>0.01</v>
@@ -1480,16 +1654,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="E7">
         <v>0.01</v>
@@ -1497,16 +1671,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="E8">
         <v>0.01</v>
@@ -1514,16 +1688,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="E9">
         <v>0.01</v>
@@ -1531,16 +1705,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="E10">
         <v>14.17</v>
@@ -1548,12 +1722,12 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="E12">
         <v>29.54</v>
@@ -1589,30 +1763,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="E2">
         <v>13.86</v>
@@ -1620,16 +1794,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="E3">
         <v>14.74</v>
@@ -1637,12 +1811,12 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="E5">
         <v>28.6</v>
@@ -1673,21 +1847,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="C2">
         <v>829.3200000000001</v>
@@ -1695,10 +1869,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="C3">
         <v>932.75</v>
@@ -1706,10 +1880,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="C4">
         <v>294.1</v>
@@ -1717,10 +1891,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="C5">
         <v>28.6</v>
@@ -1728,10 +1902,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C6">
         <v>29.54</v>
@@ -1739,10 +1913,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="C7">
         <v>15.89</v>
